--- a/datasets/interviews/raw_interview_data_and_charts.xlsx
+++ b/datasets/interviews/raw_interview_data_and_charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\AMS\Thesis\datasets\interviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43AAB4F-73C8-41E2-AAAC-2AB02C204AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6FF015-8D07-4898-AF81-F74B0F6BE60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12560" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1290" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="171">
   <si>
     <t>Category</t>
   </si>
@@ -558,6 +558,12 @@
   <si>
     <t>Shortage on IT Knowledge</t>
   </si>
+  <si>
+    <t>No Non-Monotonicity</t>
+  </si>
+  <si>
+    <t>Non-Monotonicity</t>
+  </si>
 </sst>
 </file>
 
@@ -960,7 +966,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$D$1</c15:sqref>
@@ -989,7 +995,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$A$2:$A$11</c15:sqref>
@@ -1033,7 +1039,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$D$2:$D$11</c15:sqref>
@@ -1076,7 +1082,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-6FC9-4907-A031-F50B8FDA26BE}"/>
                   </c:ext>
@@ -1089,7 +1095,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$E$1</c15:sqref>
@@ -1118,7 +1124,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$A$2:$A$11</c15:sqref>
@@ -1162,7 +1168,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$E$2:$E$11</c15:sqref>
@@ -1205,7 +1211,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-6FC9-4907-A031-F50B8FDA26BE}"/>
                   </c:ext>
@@ -1785,7 +1791,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$C$1</c15:sqref>
@@ -1814,7 +1820,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$A$2:$A$18</c15:sqref>
@@ -1879,7 +1885,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$C$2:$C$18</c15:sqref>
@@ -1943,7 +1949,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-FF27-47A8-92E4-D9D786C18B3F}"/>
                   </c:ext>
@@ -1956,7 +1962,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$D$1</c15:sqref>
@@ -1985,7 +1991,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$A$2:$A$18</c15:sqref>
@@ -2050,7 +2056,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$D$2:$D$18</c15:sqref>
@@ -2114,7 +2120,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-FF27-47A8-92E4-D9D786C18B3F}"/>
                   </c:ext>
@@ -9616,7 +9622,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$C$1</c15:sqref>
@@ -9645,7 +9651,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$A$2:$A$11</c15:sqref>
@@ -9689,7 +9695,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$C$2:$C$11</c15:sqref>
@@ -9732,7 +9738,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-DB0A-4EB9-8B58-B5A846B43CBB}"/>
                   </c:ext>
@@ -9745,7 +9751,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$D$1</c15:sqref>
@@ -9774,7 +9780,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$A$2:$A$11</c15:sqref>
@@ -9818,7 +9824,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Attenuate Variety'!$D$2:$D$11</c15:sqref>
@@ -9861,7 +9867,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-DB0A-4EB9-8B58-B5A846B43CBB}"/>
                   </c:ext>
@@ -14182,15 +14188,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Amplified Variety'!$B$1</c:f>
+              <c:f>'Amplified Variety'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Count</c:v>
+                  <c:v>% Cases</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14226,10 +14232,1136 @@
                   <c:v>No Optionality</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Mono-Monotonicity</c:v>
+                  <c:v>Non-Monotonicity</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>No Mono-Monotonicity</c:v>
+                  <c:v>No Non-Monotonicity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emergence</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>No Emergence</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Self-Organisation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>No Self-Organisation</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Insert Low Level Stress</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>No Insert Low Level Stress</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Network-Connections</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>No Network-Connections</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fail Fast</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>No Fail Fast</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Resources to Invest</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>No Resources to Invest</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Seneca's Barbell</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>No Seneca's Barbell</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Insert Randomness</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>No Insert Randonmness</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Reduce naive intervention</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>No Reduce naive intervention</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Skin in the Game</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>No skin in the game</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Amplified Variety'!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6A99-400F-8748-7BCD32499F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="573796528"/>
+        <c:axId val="573796856"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Amplified Variety'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Count</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Amplified Variety'!$A$2:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>Diversity</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No Diversity</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Optionality</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>No Optionality</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Non-Monotonicity</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>No Non-Monotonicity</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Emergence</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>No Emergence</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Self-Organisation</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>No Self-Organisation</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Insert Low Level Stress</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>No Insert Low Level Stress</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Network-Connections</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>No Network-Connections</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Fail Fast</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>No Fail Fast</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Resources to Invest</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>No Resources to Invest</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>Seneca's Barbell</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>No Seneca's Barbell</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Insert Randomness</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>No Insert Randonmness</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>Reduce naive intervention</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>No Reduce naive intervention</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>Skin in the Game</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>No skin in the game</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Amplified Variety'!$B$2:$B$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3FB9-4E39-B4C9-00E922181E06}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Amplified Variety'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>% Codes</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Amplified Variety'!$A$2:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>Diversity</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No Diversity</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Optionality</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>No Optionality</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Non-Monotonicity</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>No Non-Monotonicity</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Emergence</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>No Emergence</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Self-Organisation</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>No Self-Organisation</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Insert Low Level Stress</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>No Insert Low Level Stress</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Network-Connections</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>No Network-Connections</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Fail Fast</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>No Fail Fast</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Resources to Invest</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>No Resources to Invest</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>Seneca's Barbell</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>No Seneca's Barbell</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Insert Randomness</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>No Insert Randonmness</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>Reduce naive intervention</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>No Reduce naive intervention</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>Skin in the Game</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>No skin in the game</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Amplified Variety'!$C$2:$C$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>2.5999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.6E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.1000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.3E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.3E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.3000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.1000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.2E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.2E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.6E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.4E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8.9999999999999993E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-6A99-400F-8748-7BCD32499F2C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Amplified Variety'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cases</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Amplified Variety'!$A$2:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>Diversity</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No Diversity</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Optionality</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>No Optionality</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Non-Monotonicity</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>No Non-Monotonicity</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Emergence</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>No Emergence</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Self-Organisation</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>No Self-Organisation</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Insert Low Level Stress</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>No Insert Low Level Stress</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Network-Connections</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>No Network-Connections</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Fail Fast</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>No Fail Fast</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Resources to Invest</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>No Resources to Invest</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>Seneca's Barbell</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>No Seneca's Barbell</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Insert Randomness</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>No Insert Randonmness</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>Reduce naive intervention</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>No Reduce naive intervention</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>Skin in the Game</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>No skin in the game</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Amplified Variety'!$D$2:$D$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-6A99-400F-8748-7BCD32499F2C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="573796528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573796856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573796856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573796528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Amplified Variety'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Amplified Variety'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Diversity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No Diversity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optionality</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>No Optionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Non-Monotonicity</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>No Non-Monotonicity</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Emergence</c:v>
@@ -14458,10 +15590,10 @@
                         <c:v>No Optionality</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Mono-Monotonicity</c:v>
+                        <c:v>Non-Monotonicity</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>No Mono-Monotonicity</c:v>
+                        <c:v>No Non-Monotonicity</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>Emergence</c:v>
@@ -14621,7 +15753,7 @@
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-FEC5-4575-BEFA-9AB32E8824A1}"/>
+                    <c16:uniqueId val="{00000006-9F0C-433D-8B93-133571117BF6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -14683,10 +15815,10 @@
                         <c:v>No Optionality</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Mono-Monotonicity</c:v>
+                        <c:v>Non-Monotonicity</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>No Mono-Monotonicity</c:v>
+                        <c:v>No Non-Monotonicity</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>Emergence</c:v>
@@ -14846,7 +15978,7 @@
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-FEC5-4575-BEFA-9AB32E8824A1}"/>
+                    <c16:uniqueId val="{00000007-9F0C-433D-8B93-133571117BF6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -14908,10 +16040,10 @@
                         <c:v>No Optionality</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Mono-Monotonicity</c:v>
+                        <c:v>Non-Monotonicity</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>No Mono-Monotonicity</c:v>
+                        <c:v>No Non-Monotonicity</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>Emergence</c:v>
@@ -15071,7 +16203,7 @@
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-FEC5-4575-BEFA-9AB32E8824A1}"/>
+                    <c16:uniqueId val="{00000008-9F0C-433D-8B93-133571117BF6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -15104,7 +16236,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -15134,6 +16266,8 @@
         <c:axId val="573796856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="28"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -15284,1137 +16418,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Amplified Variety'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Cases</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Amplified Variety'!$A$2:$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>Diversity</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No Diversity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Optionality</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>No Optionality</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mono-Monotonicity</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>No Mono-Monotonicity</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Emergence</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>No Emergence</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Self-Organisation</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>No Self-Organisation</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Insert Low Level Stress</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>No Insert Low Level Stress</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Network-Connections</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>No Network-Connections</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Fail Fast</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>No Fail Fast</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Resources to Invest</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>No Resources to Invest</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Seneca's Barbell</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>No Seneca's Barbell</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Insert Randomness</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>No Insert Randonmness</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Reduce naive intervention</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>No Reduce naive intervention</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Skin in the Game</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>No skin in the game</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Amplified Variety'!$E$2:$E$27</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D9E3-4090-9CA8-87A1443292B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="573796528"/>
-        <c:axId val="573796856"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Amplified Variety'!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Count</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:tint val="88500"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Amplified Variety'!$A$2:$A$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>Diversity</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>No Diversity</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Optionality</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>No Optionality</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Mono-Monotonicity</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>No Mono-Monotonicity</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Emergence</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>No Emergence</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Self-Organisation</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>No Self-Organisation</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>Insert Low Level Stress</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>No Insert Low Level Stress</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>Network-Connections</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>No Network-Connections</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>Fail Fast</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>No Fail Fast</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>Resources to Invest</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>No Resources to Invest</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>Seneca's Barbell</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>No Seneca's Barbell</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Insert Randomness</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>No Insert Randonmness</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>Reduce naive intervention</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>No Reduce naive intervention</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>Skin in the Game</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>No skin in the game</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Amplified Variety'!$B$2:$B$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-3FB9-4E39-B4C9-00E922181E06}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Amplified Variety'!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>% Codes</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:tint val="55000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Amplified Variety'!$A$2:$A$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>Diversity</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>No Diversity</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Optionality</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>No Optionality</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Mono-Monotonicity</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>No Mono-Monotonicity</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Emergence</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>No Emergence</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Self-Organisation</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>No Self-Organisation</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>Insert Low Level Stress</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>No Insert Low Level Stress</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>Network-Connections</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>No Network-Connections</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>Fail Fast</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>No Fail Fast</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>Resources to Invest</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>No Resources to Invest</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>Seneca's Barbell</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>No Seneca's Barbell</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Insert Randomness</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>No Insert Randonmness</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>Reduce naive intervention</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>No Reduce naive intervention</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>Skin in the Game</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>No skin in the game</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Amplified Variety'!$C$2:$C$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>2.5999999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.6E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2.1000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2.3E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5.0000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2.3E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5.0000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5.0000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>5.0000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>5.0000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>3.3000000000000002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>3.0000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.1000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1.2E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1.2E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1.6E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1.4E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>5.0000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>8.9999999999999993E-3</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-D9E3-4090-9CA8-87A1443292B7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Amplified Variety'!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Cases</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:tint val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Amplified Variety'!$A$2:$A$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>Diversity</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>No Diversity</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Optionality</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>No Optionality</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Mono-Monotonicity</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>No Mono-Monotonicity</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Emergence</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>No Emergence</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Self-Organisation</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>No Self-Organisation</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>Insert Low Level Stress</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>No Insert Low Level Stress</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>Network-Connections</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>No Network-Connections</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>Fail Fast</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>No Fail Fast</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>Resources to Invest</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>No Resources to Invest</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>Seneca's Barbell</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>No Seneca's Barbell</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Insert Randomness</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>No Insert Randonmness</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>Reduce naive intervention</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>No Reduce naive intervention</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>Skin in the Game</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>No skin in the game</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Amplified Variety'!$D$2:$D$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-D9E3-4090-9CA8-87A1443292B7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="573796528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="573796856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="573796856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                    <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>% of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Cases</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                  <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="573796528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-          <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-          <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -16696,7 +16699,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$D$1</c15:sqref>
@@ -16725,7 +16728,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$A$2:$A$11</c15:sqref>
@@ -16769,7 +16772,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$D$2:$D$11</c15:sqref>
@@ -16812,7 +16815,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-22EF-4E38-A58B-0AB6F709F2B4}"/>
                   </c:ext>
@@ -16825,7 +16828,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$E$1</c15:sqref>
@@ -16854,7 +16857,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$A$2:$A$11</c15:sqref>
@@ -16898,7 +16901,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$E$2:$E$11</c15:sqref>
@@ -16941,7 +16944,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-22EF-4E38-A58B-0AB6F709F2B4}"/>
                   </c:ext>
@@ -17437,7 +17440,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$C$1</c15:sqref>
@@ -17466,7 +17469,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$A$2:$A$11</c15:sqref>
@@ -17510,7 +17513,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$C$2:$C$11</c15:sqref>
@@ -17553,7 +17556,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-8AAF-4B64-A00A-357F8ADB3819}"/>
                   </c:ext>
@@ -17566,7 +17569,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$D$1</c15:sqref>
@@ -17595,7 +17598,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$A$2:$A$11</c15:sqref>
@@ -17639,7 +17642,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Learning Organisation'!$D$2:$D$11</c15:sqref>
@@ -17682,7 +17685,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-8AAF-4B64-A00A-357F8ADB3819}"/>
                   </c:ext>
@@ -18095,7 +18098,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$D$1</c15:sqref>
@@ -18124,7 +18127,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$A$2:$A$4</c15:sqref>
@@ -18147,7 +18150,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$D$2:$D$4</c15:sqref>
@@ -18169,7 +18172,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-7851-48FB-AC5E-72EDC045DF03}"/>
                   </c:ext>
@@ -18182,7 +18185,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$E$1</c15:sqref>
@@ -18211,7 +18214,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$A$2:$A$4</c15:sqref>
@@ -18234,7 +18237,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$E$2:$E$4</c15:sqref>
@@ -18256,7 +18259,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-7851-48FB-AC5E-72EDC045DF03}"/>
                   </c:ext>
@@ -18668,7 +18671,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$C$1</c15:sqref>
@@ -18697,7 +18700,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$A$2:$A$4</c15:sqref>
@@ -18720,7 +18723,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$C$2:$C$4</c15:sqref>
@@ -18742,7 +18745,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-2894-4AC5-BD94-C1F01CAF6C7D}"/>
                   </c:ext>
@@ -18755,7 +18758,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$D$1</c15:sqref>
@@ -18784,7 +18787,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$A$2:$A$4</c15:sqref>
@@ -18807,7 +18810,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'EA School'!$D$2:$D$4</c15:sqref>
@@ -18829,7 +18832,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-2894-4AC5-BD94-C1F01CAF6C7D}"/>
                   </c:ext>
@@ -19410,7 +19413,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$D$1</c15:sqref>
@@ -19439,7 +19442,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$A$2:$A$18</c15:sqref>
@@ -19504,7 +19507,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$D$2:$D$18</c15:sqref>
@@ -19568,7 +19571,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-1BB3-45C0-9C8C-4DFD1C8AD469}"/>
                   </c:ext>
@@ -19581,7 +19584,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$E$1</c15:sqref>
@@ -19610,7 +19613,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$A$2:$A$18</c15:sqref>
@@ -19675,7 +19678,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Findings'!$E$2:$E$18</c15:sqref>
@@ -19739,7 +19742,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-1BB3-45C0-9C8C-4DFD1C8AD469}"/>
                   </c:ext>
@@ -33155,23 +33158,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582611</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>496211</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>93209</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C84D70-04D6-4A5D-AD47-B47F21ED8307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59947B27-63FD-49AA-B493-1E5C233FE241}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33191,23 +33194,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401633</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315233</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2D3546-673B-4B8A-9F81-E491318ECA36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88639D49-7F1D-40B7-8AB7-2339D8B470EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39437,8 +39440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8950BA62-782D-4B89-BBCF-E068A2A2C730}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39533,7 +39536,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -39550,7 +39553,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="B7" s="5">
         <v>13</v>
@@ -40211,7 +40214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E087E807-652A-4F44-B528-BA1A7F7F9B39}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
